--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5233">
   <si>
     <t>translation_group</t>
   </si>
@@ -15670,12 +15670,6 @@
   </si>
   <si>
     <t xml:space="preserve"> सूचनाएं</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16062,17 +16056,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54719,18 +54713,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5217</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5218</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54740,10 +54726,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
       <c r="D2763" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54754,10 +54740,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="D2764" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54768,10 +54754,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="D2765" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54782,10 +54768,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="D2766" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54796,10 +54782,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="D2767" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54810,10 +54796,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
       <c r="D2768" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54824,10 +54810,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D2769" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54866,11 +54852,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
       <c r="D2772" t="s">
-        <v>5234</v>
-      </c>
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5923">
   <si>
     <t>translation_group</t>
   </si>
@@ -10232,7 +10232,7 @@
     <t>एसईओ सेटिंग्स</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>खोज इंजन में अपनी वेबसाइट ढूंढते समय अधिकतम परिणामों के लिए फ़ील्ड भरें।</t>
@@ -17188,6 +17188,616 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Microweber में आपका स्वागत है</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>अपनी वेबसाइट, ऑनलाइन दुकान या ब्लॉग बनाने के लिए माइक्रोवेबर का उपयोग करें।</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>सामग्री बनाएं और संपादित करें, ऑनलाइन बेचें, ऑर्डर और क्लाइंट प्रबंधित करें।</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>हटाना</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>परित्यक्त गाड़ी</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>आप इस टेम्पलेट का उपयोग कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>परिवर्तन केवल वर्तमान पृष्ठ को प्रभावित करेगा।</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>कई टेम्पलेट्स की अनुमति दें</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>यदि आप कई टेम्प्लेट की अनुमति देते हैं, तो नए पृष्ठ बनाते समय आप विभिन्न टेम्प्लेट का उपयोग करने में समर्थ होंगे।</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>सिस्टम ई-मेल वेबसाइट सेटिंग्स</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>नए पंजीकरण, पासवर्ड रीसेट और अन्य सिस्टम फ़ंक्शंस से संबंधित संदेश वितरित करें।</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>ईमेल पते से</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex। आपकी वेबसाइट का नाम</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>सामान्य ई-मेल प्रदाता सेटिंग्स</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>अपना ईमेल प्रदाता सेट करें।</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>सामान्य ई-मेल प्रदाता वेबसाइट से संबंधित सभी संदेश देगा। जिसमें सिस्टम संदेश और संपर्क फ़ॉर्म संदेश शामिल हैं।</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>वेबसाइट लोगो</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>अपनी वेबसाइट के लिए एक लोगो का चयन करें।</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>लोगो अपलोड करें</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>वेबसाइट फेविकॉन</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>डिफ़ॉल्ट भाषा बदलना ।।</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>कैश को साफ़ करें..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>बहुभाषी मॉड्यूल स्थापित करें</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ता अस्थायी ईमेल जैसे - मेलिनेटर, मेलड्रॉप, गुरिल्ला ... के साथ पंजीकरण कर सकते हैं</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>पंजीकृत उपयोगकर्ता स्वचालित रूप से आपसे एक स्वचालित ईमेल प्राप्त कर सकते हैं। सेटिंग्स देखें और अपने संदेश पोस्ट करें।</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ताओं को व्यवस्थापक करने के लिए नए उपयोगकर्ता पंजीकरण पर ईमेल भेजें</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>क्या आप चाहते हैं कि नए उपयोगकर्ता के पंजीकरण के लिए व्यवस्थापक एक ई-मेल प्राप्त करें?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber मुक्त खुला स्रोत खींचें और ड्रॉप वेबसाइट बिल्डर और सीएमएस है। यह एमआईटी लाइसेंस के तहत है और हम लारवेल PHP फ्रेमवर्क का उपयोग करते हैं</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>एक स्लाइडर</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>पता करने के लिए शिपिंग</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>पते से पिकअप</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>वैश्विक व्यवस्था</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>ई-मेल एकीकरण</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>आपके पास सिस्टम ई-मेल और smtp सेटअप नहीं है।</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>अपनी सिस्टम सेटिंग यहां सेट करें।</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>वैश्विक संपर्क फ़ॉर्म सेटिंग्स</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>ई-मेल भेजने के विकल्प</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>वैश्विक प्रेषक</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>कस्टम प्रेषक सेटिंग्स का उपयोग करें</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>वैश्विक संपर्क फ़ॉर्म के लिए कस्टम प्रेषक सेटिंग्स का उपयोग करें।</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>डिफ़ॉल्ट रूप से हम वेबसाइट सिस्टम ई-मेल सेटिंग्स का उपयोग करेंगे।</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>आप यहां सिस्टम ई-मेल सेटिंग्स बदल सकते हैं।</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>ग्लोबल रिसीवर</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>जमा होने पर वैश्विक रिसीवरों से संपर्क फ़ॉर्म डेटा भेजें</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>ई-मेल पते पर</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>कोमा से अलग किए गए रिसीवरों का ई-मेल पता।</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>PHP SOAP एक्सटेंशन को सक्षम करने के लिए अपने होस्टिंग प्रदाता से संपर्क करें।</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>तत्वों</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>दो महीने पहले</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>फ़ेविकॉन निकालें</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>रिवाज</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>स्कीम ..org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>व्हाइट लेबल WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>मॉड्यूल टेम्पलेट बदल गया है</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>सामग्री संस्करण</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>डिफ़ॉल्ट लेआउट और तत्व</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>तीर सूची</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>जाँच सूची</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>पृष्ठभूमि पाठ</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>पाठ के साथ शीर्षक</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>टेक्स्ट के साथ आइकन</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>दो पाठ कॉलम</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>आइकन और शीर्षक के साथ दो टेक्स्ट कॉलम</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>शीर्षक और पाठ के साथ छवि</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>छवि और शीर्षक के साथ पाठ</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>छवि के साथ पाठ</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>टिप्पणी सक्षम करें</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">से अपनी कैप्चा वरीयताएँ सेट करें </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>कस्टम फ़ील्ड का उपयोग करके फ़ॉर्म के फ़ील्ड जोड़ें / संपादित करें</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>वर्तमान संपर्क फ़ॉर्म सेटिंग्स</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>संपर्क प्रपत्र नाम</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>इस संपर्क फ़ॉर्म का नाम क्या है?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>रिसीवर</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>जब सबमिशन हो तो कस्टम रिसीवर को संपर्क फ़ॉर्म डेटा भेजें</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>वर्तमान संपर्क फ़ॉर्म के लिए कस्टम रिसीवर सेटिंग्स का उपयोग करें।</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>डिफ़ॉल्ट रूप से हम संपर्क फ़ॉर्म वैश्विक सेटिंग्स का उपयोग करेंगे।</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>आप यहां संपर्क फ़ॉर्म वैश्विक सेटिंग्स बदल सकते हैं।</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ता को ऑटो प्रतिक्रिया संदेश</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ता को ऑटो प्रतिक्रिया संदेश सक्षम करें</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ताओं को "सदस्यता के बाद धन्यवाद ईमेल" प्राप्त करने की अनुमति दें।</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>ऑटो प्रतिक्रिया विषय</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>ऑटो उत्तरदाता आपको आने वाले ईमेल पर स्वचालित उत्तर सेट करने की अनुमति देता है</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>ऑटो प्रतिक्रिया संदेश</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>ऑटो प्रतिक्रिया ई-मेल उपयोगकर्ता को वापस भेज दिया</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>ऑटो प्रतिक्रिया कस्टम प्रेषक</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>वर्तमान संपर्क फ़ॉर्म के लिए कस्टम प्रेषक सेटिंग्स का उपयोग करें।</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>ई-मेल पते से ऑटो प्रतिक्रिया</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>नाम से ऑटो जवाब</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>ई-मेल का ऑटो रिप्लाई रिप्लाई</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>जब उपयोगकर्ता को ऑटो प्रतिक्रिया संदेश प्राप्त होता है तो वे ईमेल का जवाब देने के लिए वापस प्रतिक्रिया दे सकते हैं।</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>ऑटो ई-मेल अटैचमेंट का जवाब देता है</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>यदि आप og और images संलग्न करना चाहते हैं, तो आपको उन्हें 'मीडिया जोड़ें' से गैलरी में अपलोड करना होगा</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>आपके पास अभी तक कोई पोस्ट नहीं है</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>अभी अपनी पहली पोस्ट बनाएँ।</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>एक पोस्ट बनाएँ</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>उत्पाद विवरण लिखने के लिए जो
+                                                    बेचते हैं, आप अपने स्टोर को सफल बनाने के लिए सबसे अच्छी चीजों में से एक महान उत्पाद विवरण लिखने में कुछ समय का निवेश कर सकते हैं। आप विस्तृत रूप से संक्षिप्त जानकारी प्रदान करना चाहते हैं जो कि खरीदने के लिए संभावित ग्राहकों को लुभाएगी।
+                                                    एक उपभोक्ता की तरह सोचें
+                                                    एक उपभोक्ता के रूप में आप क्या जानना चाहते हैं, उसके बारे में सोचें, फिर उन विशेषताओं को अपने विवरण में शामिल करें। कपड़े के लिए: सामग्री और फिट। भोजन के लिए: सामग्री और यह कैसे तैयार किया गया था।
+                                                   सुविधाओं को सूचीबद्ध करते समय बुलेट आपके मित्र हैं -
+                                                            को प्रत्येक को 5-8 शब्दों तक सीमित करने का प्रयास करें।</t>
   </si>
 </sst>
 </file>
@@ -17526,7 +18136,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67834,6 +68444,1757 @@
         <v>3649</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>4929</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6221">
   <si>
     <t>translation_group</t>
   </si>
@@ -17798,6 +17798,900 @@
                                                     एक उपभोक्ता के रूप में आप क्या जानना चाहते हैं, उसके बारे में सोचें, फिर उन विशेषताओं को अपने विवरण में शामिल करें। कपड़े के लिए: सामग्री और फिट। भोजन के लिए: सामग्री और यह कैसे तैयार किया गया था।
                                                    सुविधाओं को सूचीबद्ध करते समय बुलेट आपके मित्र हैं -
                                                             को प्रत्येक को 5-8 शब्दों तक सीमित करने का प्रयास करें।</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>व्यवस्थापक भाषा</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>सीमा</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>कोड संपादक</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>ब्लॉग</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>खिताब</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>शीर्षक 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>शीर्षक 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>शीर्षक 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>शीर्षक 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>शीर्षक 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>शीर्षक 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>शीर्षक 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>शीर्षक 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>टेक्स्ट ब्लॉक 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>विशेषताएँ</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>विशेषताएं 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>विशेषताएं 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>विशेषताएं 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>विशेषताएं 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>मेनू - त्वचा-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>मेनू - त्वचा-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>मेनू - त्वचा-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>मेनू - त्वचा-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>मेनू - त्वचा-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>पाद लेख</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>पाद लेख 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>पाद 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>पाद लेख 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>पाद लेख 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>जंबोट्रॉन 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>डिफ़ॉल्ट लेआउट</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>यहां कोई सामग्री नहीं है</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>कस्टम फ़ील्ड सहेजे गए हैं</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>मौजूदा क्षेत्र</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>नीचे अपने मौजूदा क्षेत्रों में से चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> नए फ़ील्ड जोड़ें</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>नीचे दी गई सूची से नया कस्टम फ़ील्ड जोड़ें</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>आपके क्षेत्र</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>आपके जोड़े गए कस्टम फ़ील्ड की सूची</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">लंबवत दोहराएं </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>फुहारा परिवार</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>उपरिशायी</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>मिश्रण मोड</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>पात्र</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>कंटेनर प्रकार</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>एनिमेशन</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>शैलियों को पुनः लोड करना</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>के लिए लिंक</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन पैकेज</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>डेमो</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>उपयोग</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>वर्तमान</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>पुन: व्यवस्थित करें</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>प्रणाली</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>ब्राउज़र रीडायरेक्ट</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>एकीकरण</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>स्टैंडअलोन अपडेटर</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>इस पैकेज को स्थापित करने के लिए आपको लाइसेंस कुंजी की आवश्यकता है</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>यह पैकेज प्रीमियम है और इसे स्थापित करने के लिए आपके पास लाइसेंस कुंजी होनी चाहिए</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>आपको लाइसेंस कुंजी चाहिए</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>लाइसेंस सक्रिय</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>पृष्ठ पुनः लोड करना</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>लाइसेंस सक्रिय नहीं</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>सिस्टम अपडेट</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>सिस्टम अपडेट की जांच करें</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>दोबारा सूची को जाएं</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>श्रेणी का एक नाम होना चाहिए</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>क्या श्रेणी छिपी हुई है?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>यदि आप इसे हाँ पर सेट करते हैं तो यह श्रेणी वेबसाइट से छिपा दी जाएगी</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>उल्लेख</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>आपकी गाड़ी खाली है।</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>परिणाम मिले</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>यदि आप चयनित फ़ील्ड से प्रतिशत चुनते हैं, तो इसकी गणना उत्पाद के मूल्य और ऑफ़र मूल्य से स्वचालित रूप से की जाएगी।</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>मान.बहुभाषा.शीर्षक.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>आईयूआईयूयूआई</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>चेक आउट करने के लिए आगे बढ़ें</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>ताज़ा करें</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>प्रदर्शित</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>का</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>परिणाम)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>पेज का शीर्षक - राइट ब्रेडक्रंब</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>पेज का शीर्षक - बायां ब्रेडक्रंब</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>उपयोग की शर्तें</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>वितरण और रिटर्न</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>लगभग 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>लगभग 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>लगभग 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>घर 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>होम 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>अपना टेम्प्लेट बदलने के लिए आपको टेम्प्लेट लागू करें बटन पर क्लिक करना होगा</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>मापदंड के आधार पर खोजें</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>दिनांक से</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>दिनांक से आदेश निर्धारित करें</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>की तारीख</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>आज तक के आदेश सेट करें</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>से ऑर्डर राशि</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>न्यूनतम राशि के साथ आदेश दिखाएं</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>आदेश राशि</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>अधिकतम राशि के साथ आदेश दिखाएं</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>उत्पादों के आधार पर खोजें...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>उत्पादों के आधार पर खोजें</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>भुगतान की स्थिति</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>फोन, नाम, ईमेल आदि द्वारा मुफ्त खोज...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>यह मानदंड सबमिट करें</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>फ़िल्टर रीसेट करें</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>सभी निर्यात करें</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>छँटाई का चयन करें</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>आर्डर की तारीख</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[नया &gt; पुराना]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[पुराना &gt; नया]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[उच्च &gt; निम्न]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[निम्न&gt; उच्च]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>आर्डर पूरा हुआ</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>आपके डेटाबेस में बहुभाषा मॉड्यूल से अनुवाद पाए गए हैं।</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>चेतावनी! डिफ़ॉल्ट भाषा बदलने से आपकी साइट पर अनुवाद बाधित हो सकते हैं।</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>क्या आप वाकई जारी रखना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>चेतावनी! बदलती डिफ़ॉल्ट भाषा शायद आपकी साइट को तोड़ देगी।</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>शिपिंग की जानकारियां</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>आदेश अभी तक पूरा नहीं हुआ है</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>आदेश पूरा हुआ</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>पर बनाया गया</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>पर अपडेट किया गया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">त्वरित देखें </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>भाषा मान बदलें</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>अनुवाद आयात किए जाते हैं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">डेटाबेस में अनुवाद नहीं मिला। क्या आप अनुवाद आयात करना चाहते हैं? </t>
   </si>
 </sst>
 </file>
@@ -17821,10 +18715,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17835,7 +18726,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18136,7 +19027,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70198,8 +71089,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3114">
+        <v>1</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6098</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6109</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6109</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6181</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6184</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6185</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6191</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6204</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70211,5 +73736,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/hi_IN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6033">
   <si>
     <t>translation_group</t>
   </si>
@@ -17193,25 +17193,25 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Microweber में आपका स्वागत है</t>
+    <t>माइक्रोवेबर में आपका स्वागत है</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>अपनी वेबसाइट, ऑनलाइन दुकान या ब्लॉग बनाने के लिए माइक्रोवेबर का उपयोग करें।</t>
+    <t>अपनी वेबसाइट, ऑनलाइन दुकान या ब्लॉग बनाने के लिए माइक्रोवेबर का प्रयोग करें।</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>सामग्री बनाएं और संपादित करें, ऑनलाइन बेचें, ऑर्डर और क्लाइंट प्रबंधित करें।</t>
+    <t>सामग्री बनाएं और संपादित करें, ऑनलाइन बिक्री करें, ऑर्डर और क्लाइंट प्रबंधित करें।</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>हटाना</t>
+    <t>निकालना</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
@@ -17235,13 +17235,13 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>कई टेम्पलेट्स की अनुमति दें</t>
+    <t>एकाधिक टेम्पलेट्स की अनुमति दें</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>यदि आप कई टेम्प्लेट की अनुमति देते हैं, तो नए पृष्ठ बनाते समय आप विभिन्न टेम्प्लेट का उपयोग करने में समर्थ होंगे।</t>
+    <t>यदि आप कई टेम्प्लेट की अनुमति देते हैं, तो आप नए पेज बनाते समय अलग-अलग टेम्प्लेट का उपयोग करने में सक्षम होंगे।</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17253,7 +17253,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>नए पंजीकरण, पासवर्ड रीसेट और अन्य सिस्टम फ़ंक्शंस से संबंधित संदेश वितरित करें।</t>
+    <t>नए पंजीकरण, पासवर्ड रीसेट और अन्य सिस्टम कार्यात्मकताओं से संबंधित संदेश वितरित करें।</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17265,7 +17265,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Ex। आपकी वेबसाइट का नाम</t>
+    <t>भूतपूर्व। आपकी वेबसाइट का नाम</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17283,7 +17283,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>सामान्य ई-मेल प्रदाता वेबसाइट से संबंधित सभी संदेश देगा। जिसमें सिस्टम संदेश और संपर्क फ़ॉर्म संदेश शामिल हैं।</t>
+    <t>सामान्य ई-मेल प्रदाता वेबसाइट से संबंधित सभी संदेश वितरित करेगा। सिस्टम संदेशों और संपर्क फ़ॉर्म संदेशों सहित।</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17295,7 +17295,7 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>अपनी वेबसाइट के लिए एक लोगो का चयन करें।</t>
+    <t>अपनी वेबसाइट के लिए एक लोगो चुनें।</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17313,7 +17313,7 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>डिफ़ॉल्ट भाषा बदलना ।।</t>
+    <t>डिफ़ॉल्ट भाषा बदल रही है..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17331,31 +17331,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>उपयोगकर्ता अस्थायी ईमेल जैसे - मेलिनेटर, मेलड्रॉप, गुरिल्ला ... के साथ पंजीकरण कर सकते हैं</t>
+    <t>उपयोगकर्ता अस्थाई ईमेल जैसे - मेलिनेटर, मेलड्रॉप, गुरिल्ला... के साथ पंजीकरण कर सकते हैं</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>पंजीकृत उपयोगकर्ता स्वचालित रूप से आपसे एक स्वचालित ईमेल प्राप्त कर सकते हैं। सेटिंग्स देखें और अपने संदेश पोस्ट करें।</t>
+    <t>रजिस्टर उपयोगकर्ता स्वचालित रूप से आपसे एक स्वचालित ईमेल प्राप्त कर सकते हैं। सेटिंग्स देखें और अपने संदेश पोस्ट करें।</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>उपयोगकर्ताओं को व्यवस्थापक करने के लिए नए उपयोगकर्ता पंजीकरण पर ईमेल भेजें</t>
+    <t>व्यवस्थापक उपयोगकर्ताओं को नए उपयोगकर्ता पंजीकरण पर ईमेल भेजें</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>क्या आप चाहते हैं कि नए उपयोगकर्ता के पंजीकरण के लिए व्यवस्थापक एक ई-मेल प्राप्त करें?</t>
+    <t>क्या आप चाहते हैं कि नए उपयोगकर्ता के पंजीकृत होने पर व्यवस्थापकों को एक ई-मेल प्राप्त हो?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber मुक्त खुला स्रोत खींचें और ड्रॉप वेबसाइट बिल्डर और सीएमएस है। यह एमआईटी लाइसेंस के तहत है और हम लारवेल PHP फ्रेमवर्क का उपयोग करते हैं</t>
+    <t>माइक्रोवेबर फ्री ओपन सोर्स ड्रैग एंड ड्रॉप वेबसाइट बिल्डर और सीएमएस है। यह MIT लाइसेंस के तहत है और हम Laravel PHP फ्रेमवर्क का उपयोग करते हैं</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17367,7 +17367,7 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>पता करने के लिए शिपिंग</t>
+    <t>पते पर भेजना</t>
   </si>
   <si>
     <t>Pickup from address</t>
@@ -17379,7 +17379,7 @@
     <t>Global settings</t>
   </si>
   <si>
-    <t>वैश्विक व्यवस्था</t>
+    <t>वैश्विक सेटिंग्स</t>
   </si>
   <si>
     <t>E-mail Integrations</t>
@@ -17397,13 +17397,13 @@
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>अपनी सिस्टम सेटिंग यहां सेट करें।</t>
+    <t>अपनी सिस्टम सेटिंग्स को यहां सेटअप करें।</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>वैश्विक संपर्क फ़ॉर्म सेटिंग्स</t>
+    <t>वैश्विक संपर्क प्रपत्र सेटिंग्स</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17421,49 +17421,49 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>कस्टम प्रेषक सेटिंग्स का उपयोग करें</t>
+    <t>कस्टम प्रेषक सेटिंग का उपयोग करें</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>वैश्विक संपर्क फ़ॉर्म के लिए कस्टम प्रेषक सेटिंग्स का उपयोग करें।</t>
+    <t>वैश्विक संपर्क प्रपत्रों के लिए कस्टम प्रेषक सेटिंग का उपयोग करें।</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>डिफ़ॉल्ट रूप से हम वेबसाइट सिस्टम ई-मेल सेटिंग्स का उपयोग करेंगे।</t>
+    <t>डिफ़ॉल्ट रूप से हम वेबसाइट सिस्टम ई-मेल सेटिंग का उपयोग करेंगे।</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>आप यहां सिस्टम ई-मेल सेटिंग्स बदल सकते हैं।</t>
+    <t>आप यहां सिस्टम ई-मेल सेटिंग बदल सकते हैं।</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>ग्लोबल रिसीवर</t>
+    <t>वैश्विक रिसीवर</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>जमा होने पर वैश्विक रिसीवरों से संपर्क फ़ॉर्म डेटा भेजें</t>
+    <t>सबमिट किए जाने पर वैश्विक प्राप्तकर्ताओं को संपर्क फ़ॉर्म डेटा भेजें</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>ई-मेल पते पर</t>
+    <t>ई-मेल पतों के लिए</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>कोमा से अलग किए गए रिसीवरों का ई-मेल पता।</t>
+    <t>कोमा से अलग किए गए प्राप्तकर्ताओं का ई-मेल पता।</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
@@ -17490,13 +17490,13 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>फ़ेविकॉन निकालें</t>
+    <t>फ़ेविकॉन हटाएं</t>
   </si>
   <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>रिवाज</t>
+    <t>रीति</t>
   </si>
   <si>
     <t>bxSlider</t>
@@ -17505,12 +17505,15 @@
     <t>Schema.org</t>
   </si>
   <si>
-    <t>स्कीम ..org</t>
+    <t>स्कीमा.ओआरजी</t>
   </si>
   <si>
     <t>ProductsV2</t>
   </si>
   <si>
+    <t>उत्पाद V2</t>
+  </si>
+  <si>
     <t>Timeline</t>
   </si>
   <si>
@@ -17523,6 +17526,9 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>दृश्यमान प्रशंसापत्रों की संख्या</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17553,7 +17559,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>जाँच सूची</t>
+    <t>चेक की गई सूची</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17571,19 +17577,19 @@
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>टेक्स्ट के साथ आइकन</t>
+    <t>पाठ के साथ चिह्न</t>
   </si>
   <si>
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>दो पाठ कॉलम</t>
+    <t>दो टेक्स्ट कॉलम</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>आइकन और शीर्षक के साथ दो टेक्स्ट कॉलम</t>
+    <t>चिह्न और शीर्षक के साथ दो लेख स्तंभ</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17607,7 +17613,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>टिप्पणी सक्षम करें</t>
+    <t>टिप्पणियाँ सक्षम करें</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17616,7 +17622,7 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">से अपनी कैप्चा वरीयताएँ सेट करें </t>
+    <t xml:space="preserve">से अपनी कैप्चा प्राथमिकताएँ सेट करें </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
@@ -17634,7 +17640,7 @@
     <t>Contact form name</t>
   </si>
   <si>
-    <t>संपर्क प्रपत्र नाम</t>
+    <t>संपर्क फ़ॉर्म का नाम</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
@@ -17652,7 +17658,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>जब सबमिशन हो तो कस्टम रिसीवर को संपर्क फ़ॉर्म डेटा भेजें</t>
+    <t>सबमिट किए जाने पर कस्टम प्राप्तकर्ताओं को संपर्क फ़ॉर्म डेटा भेजें</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17664,13 +17670,13 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>डिफ़ॉल्ट रूप से हम संपर्क फ़ॉर्म वैश्विक सेटिंग्स का उपयोग करेंगे।</t>
+    <t>डिफ़ॉल्ट रूप से हम संपर्क फ़ॉर्म वैश्विक सेटिंग का उपयोग करेंगे।</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>आप यहां संपर्क फ़ॉर्म वैश्विक सेटिंग्स बदल सकते हैं।</t>
+    <t>आप यहां संपर्क फ़ॉर्म की वैश्विक सेटिंग बदल सकते हैं।</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
@@ -17682,13 +17688,13 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>उपयोगकर्ता को ऑटो प्रतिक्रिया संदेश सक्षम करें</t>
+    <t>उपयोगकर्ता को स्वत: प्रतिक्रिया संदेश सक्षम करें</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>उपयोगकर्ताओं को "सदस्यता के बाद धन्यवाद ईमेल" प्राप्त करने की अनुमति दें।</t>
+    <t>उपयोगकर्ताओं को "सदस्यता के बाद धन्यवाद ईमेल" प्राप्त करने दें।</t>
   </si>
   <si>
     <t>Auto respond subject</t>
@@ -17700,7 +17706,7 @@
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>ऑटो उत्तरदाता आपको आने वाले ईमेल पर स्वचालित उत्तर सेट करने की अनुमति देता है</t>
+    <t>ऑटो उत्तरदाता आपको आने वाली ईमेल पर स्वचालित उत्तर सेट करने की अनुमति देता है</t>
   </si>
   <si>
     <t>Auto respond message</t>
@@ -17712,7 +17718,7 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>ऑटो प्रतिक्रिया ई-मेल उपयोगकर्ता को वापस भेज दिया</t>
+    <t>स्वत: प्रतिक्रिया ई-मेल उपयोगकर्ता को वापस भेज दी गई</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
@@ -17730,37 +17736,37 @@
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>ई-मेल पते से ऑटो प्रतिक्रिया</t>
+    <t>ई-मेल पते से स्वत: प्रतिक्रिया</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>नाम से ऑटो जवाब</t>
+    <t>नाम से स्वतः प्रतिक्रिया</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>ई-मेल का ऑटो रिप्लाई रिप्लाई</t>
+    <t>ई-मेल पर ऑटो रिस्पांस रिप्लाई</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>जब उपयोगकर्ता को ऑटो प्रतिक्रिया संदेश प्राप्त होता है तो वे ईमेल का जवाब देने के लिए वापस प्रतिक्रिया दे सकते हैं।</t>
+    <t>जब उपयोगकर्ता स्वत: प्रतिक्रिया संदेश प्राप्त करता है तो वे ईमेल का जवाब देने के लिए वापस प्रतिक्रिया कर सकते हैं।</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>ऑटो ई-मेल अटैचमेंट का जवाब देता है</t>
+    <t>स्वतः प्रतिक्रिया ई-मेल संलग्नक</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>यदि आप og और images संलग्न करना चाहते हैं, तो आपको उन्हें 'मीडिया जोड़ें' से गैलरी में अपलोड करना होगा</t>
+    <t>यदि आप और छवियां संलग्न करना चाहते हैं, तो आपको उन्हें 'मीडिया जोड़ें' से गैलरी में अपलोड करना होगा</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17772,7 +17778,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>अभी अपनी पहली पोस्ट बनाएँ।</t>
+    <t>अभी अपनी पहली पोस्ट बनाएं।</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17792,12 +17798,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>उत्पाद विवरण लिखने के लिए जो
-                                                    बेचते हैं, आप अपने स्टोर को सफल बनाने के लिए सबसे अच्छी चीजों में से एक महान उत्पाद विवरण लिखने में कुछ समय का निवेश कर सकते हैं। आप विस्तृत रूप से संक्षिप्त जानकारी प्रदान करना चाहते हैं जो कि खरीदने के लिए संभावित ग्राहकों को लुभाएगी।
+    <t xml:space="preserve">
+                                                    बेचने वाले उत्पाद विवरण कैसे लिखें अपने स्टोर को सफल बनाने के लिए आप जो सबसे अच्छा काम कर सकते हैं, वह है बढ़िया उत्पाद विवरण लिखने में कुछ समय लगाना। आप विस्तृत लेकिन संक्षिप्त जानकारी प्रदान करना चाहते हैं जो संभावित ग्राहकों को खरीदने के लिए आकर्षित करेगी।
                                                     एक उपभोक्ता की तरह सोचें
-                                                    एक उपभोक्ता के रूप में आप क्या जानना चाहते हैं, उसके बारे में सोचें, फिर उन विशेषताओं को अपने विवरण में शामिल करें। कपड़े के लिए: सामग्री और फिट। भोजन के लिए: सामग्री और यह कैसे तैयार किया गया था।
-                                                   सुविधाओं को सूचीबद्ध करते समय बुलेट आपके मित्र हैं -
-                                                            को प्रत्येक को 5-8 शब्दों तक सीमित करने का प्रयास करें।</t>
+                                                    इस बारे में सोचें कि आप एक उपभोक्ता के रूप में क्या जानना चाहते हैं, फिर उन सुविधाओं को अपने विवरण में शामिल करें। कपड़े के लिए: सामग्री और फिट। भोजन के लिए: सामग्री और इसे कैसे तैयार किया गया।
+                                                   सुविधाओं को सूचीबद्ध करते समय बुलेट आपके मित्र हैं - प्रत्येक को 5-8 शब्दों तक सीमित करने के लिए
+                                                            प्रयास करें।</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17806,340 +17812,274 @@
     <t>व्यवस्थापक भाषा</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>उपपृष्ठ जोड़ें</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>श्रेणी हटाई गई</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>सामग्री हटाई गई</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>खोज श्रेणियां</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>सामग्री बनाएँ</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>कार्ड</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>कोई</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>आईडी विवरण</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>आईडी एएससी</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>सीमा</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>क्या आप वाकई हटाना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>कस्टम फ़ील्ड सहेजे गए हैं</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>मौजूदा क्षेत्र</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>नीचे अपनी मौजूदा फ़ील्ड्स में से चुनें</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> नए क्षेत्र जोड़ें</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>नीचे दी गई सूची से नया कस्टम फ़ील्ड जोड़ें</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>आपके खेत</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>आपके जोड़े गए कस्टम फ़ील्ड की सूची</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>शोरबा</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>प्रणाली</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>ब्लॉग</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>ब्राउज़र रीडायरेक्ट</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>एकीकरण</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>आयात निर्यात उपकरण</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>स्टैंडअलोन अपडेटर</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन पैकेज</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>डेमो</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>प्रयोग करना</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>मौजूदा</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>अभिव्यक्त करना</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>प्रथम श्रेणी</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>क्लिक करें और कलेक्ट करें</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>वीडियो पृष्ठभूमि</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>बहु-भाषा</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>आप एकाधिक भाषाओं का उपयोग करने के लिए बहु-भाषा मॉड्यूल को सक्रिय कर सकते हैं</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>बहु भाषा मोड</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>अपनी सामग्री के लिए एकाधिक भाषाएँ रखने के लिए बहु-भाषा मोड सक्रिय करें।</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>अनुवाद आयात किए जाते हैं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">डेटाबेस में अनुवाद नहीं मिला। क्या आप अनुवाद आयात करना चाहते हैं? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>आपकी गाड़ी खाली है।</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>कोड संपादक</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>ब्लॉग</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>खिताब</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>शीर्षक 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>शीर्षक 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>शीर्षक 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>शीर्षक 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>शीर्षक 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>शीर्षक 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>शीर्षक 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>शीर्षक 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>टेक्स्ट ब्लॉक 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>विशेषताएँ</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>विशेषताएं 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>विशेषताएं 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>विशेषताएं 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>विशेषताएं 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>मेनू - त्वचा-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>मेनू - त्वचा-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>मेनू - त्वचा-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>मेनू - त्वचा-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>मेनू - त्वचा-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>पाद लेख</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>पाद लेख 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>पाद 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>पाद लेख 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>पाद लेख 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>जंबोट्रॉन 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>डिफ़ॉल्ट लेआउट</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>यहां कोई सामग्री नहीं है</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>कस्टम फ़ील्ड सहेजे गए हैं</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>मौजूदा क्षेत्र</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>नीचे अपने मौजूदा क्षेत्रों में से चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> नए फ़ील्ड जोड़ें</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>नीचे दी गई सूची से नया कस्टम फ़ील्ड जोड़ें</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>आपके क्षेत्र</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>आपके जोड़े गए कस्टम फ़ील्ड की सूची</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>नया आयात</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18188,510 +18128,6 @@
   </si>
   <si>
     <t>शैलियों को पुनः लोड करना</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>के लिए लिंक</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकन पैकेज</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>डेमो</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>उपयोग</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>वर्तमान</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>पुन: व्यवस्थित करें</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>प्रणाली</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>ब्राउज़र रीडायरेक्ट</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>एकीकरण</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>स्टैंडअलोन अपडेटर</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>इस पैकेज को स्थापित करने के लिए आपको लाइसेंस कुंजी की आवश्यकता है</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>यह पैकेज प्रीमियम है और इसे स्थापित करने के लिए आपके पास लाइसेंस कुंजी होनी चाहिए</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>आपको लाइसेंस कुंजी चाहिए</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>लाइसेंस सक्रिय</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>पृष्ठ पुनः लोड करना</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>लाइसेंस सक्रिय नहीं</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>सिस्टम अपडेट</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>सिस्टम अपडेट की जांच करें</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>दोबारा सूची को जाएं</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>श्रेणी का एक नाम होना चाहिए</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>क्या श्रेणी छिपी हुई है?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>यदि आप इसे हाँ पर सेट करते हैं तो यह श्रेणी वेबसाइट से छिपा दी जाएगी</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>उल्लेख</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>आपकी गाड़ी खाली है।</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>परिणाम मिले</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>यदि आप चयनित फ़ील्ड से प्रतिशत चुनते हैं, तो इसकी गणना उत्पाद के मूल्य और ऑफ़र मूल्य से स्वचालित रूप से की जाएगी।</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>मान.बहुभाषा.शीर्षक.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>आईयूआईयूयूआई</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>चेक आउट करने के लिए आगे बढ़ें</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>ताज़ा करें</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>प्रदर्शित</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>का</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>परिणाम)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>पेज का शीर्षक - राइट ब्रेडक्रंब</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>पेज का शीर्षक - बायां ब्रेडक्रंब</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>उपयोग की शर्तें</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>वितरण और रिटर्न</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>लगभग 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>लगभग 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>लगभग 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>घर 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>होम 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>अपना टेम्प्लेट बदलने के लिए आपको टेम्प्लेट लागू करें बटन पर क्लिक करना होगा</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>मापदंड के आधार पर खोजें</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>दिनांक से</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>दिनांक से आदेश निर्धारित करें</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>की तारीख</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>आज तक के आदेश सेट करें</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>से ऑर्डर राशि</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>न्यूनतम राशि के साथ आदेश दिखाएं</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>आदेश राशि</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>अधिकतम राशि के साथ आदेश दिखाएं</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>उत्पादों के आधार पर खोजें...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>उत्पादों के आधार पर खोजें</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>भुगतान की स्थिति</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>फोन, नाम, ईमेल आदि द्वारा मुफ्त खोज...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>यह मानदंड सबमिट करें</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>फ़िल्टर रीसेट करें</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>सभी निर्यात करें</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>छँटाई का चयन करें</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>आर्डर की तारीख</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[नया &gt; पुराना]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[पुराना &gt; नया]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[उच्च &gt; निम्न]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[निम्न&gt; उच्च]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>आर्डर पूरा हुआ</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>आपके डेटाबेस में बहुभाषा मॉड्यूल से अनुवाद पाए गए हैं।</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>चेतावनी! डिफ़ॉल्ट भाषा बदलने से आपकी साइट पर अनुवाद बाधित हो सकते हैं।</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>क्या आप वाकई जारी रखना चाहते हैं?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>चेतावनी! बदलती डिफ़ॉल्ट भाषा शायद आपकी साइट को तोड़ देगी।</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>शिपिंग की जानकारियां</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>आदेश अभी तक पूरा नहीं हुआ है</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>आदेश पूरा हुआ</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>पर बनाया गया</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>पर अपडेट किया गया</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">त्वरित देखें </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>भाषा मान बदलें</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>अनुवाद आयात किए जाते हैं</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">डेटाबेस में अनुवाद नहीं मिला। क्या आप अनुवाद आयात करना चाहते हैं? </t>
   </si>
 </sst>
 </file>
@@ -19027,7 +18463,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70267,7 +69703,7 @@
         <v>5829</v>
       </c>
       <c r="D3014" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70281,7 +69717,7 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="D3015" t="s">
         <v>2099</v>
@@ -70298,10 +69734,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D3016" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70315,10 +69751,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D3017" t="s">
-        <v>3344</v>
+        <v>5835</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70332,10 +69768,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="D3018" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70349,10 +69785,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="D3019" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70366,7 +69802,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="D3020" t="s">
         <v>1586</v>
@@ -70383,10 +69819,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="D3021" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70400,10 +69836,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="D3022" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70417,10 +69853,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="D3023" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70434,10 +69870,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3024" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70451,10 +69887,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3025" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70468,10 +69904,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="D3026" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70485,10 +69921,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="D3027" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70502,10 +69938,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="D3028" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70519,10 +69955,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="D3029" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70536,10 +69972,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="D3030" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70553,10 +69989,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="D3031" t="s">
-        <v>5860</v>
+        <v>5862</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70570,10 +70006,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5861</v>
+        <v>5863</v>
       </c>
       <c r="D3032" t="s">
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70587,7 +70023,7 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5863</v>
+        <v>5865</v>
       </c>
       <c r="D3033" t="s">
         <v>4929</v>
@@ -70604,10 +70040,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="D3034" t="s">
-        <v>5865</v>
+        <v>5867</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70621,10 +70057,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5866</v>
+        <v>5868</v>
       </c>
       <c r="D3035" t="s">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70638,10 +70074,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5868</v>
+        <v>5870</v>
       </c>
       <c r="D3036" t="s">
-        <v>5869</v>
+        <v>5871</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70655,10 +70091,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
       <c r="D3037" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70672,10 +70108,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="D3038" t="s">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70689,10 +70125,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="D3039" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70706,10 +70142,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
       <c r="D3040" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70723,10 +70159,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="D3041" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70740,10 +70176,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="D3042" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70757,10 +70193,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="D3043" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70774,10 +70210,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="D3044" t="s">
-        <v>5885</v>
+        <v>5887</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70791,10 +70227,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="D3045" t="s">
-        <v>5887</v>
+        <v>5889</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70808,10 +70244,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3046" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70825,10 +70261,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5890</v>
+        <v>5892</v>
       </c>
       <c r="D3047" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70842,10 +70278,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="D3048" t="s">
-        <v>5893</v>
+        <v>5895</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70859,10 +70295,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5894</v>
+        <v>5896</v>
       </c>
       <c r="D3049" t="s">
-        <v>5895</v>
+        <v>5897</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70876,10 +70312,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5896</v>
+        <v>5898</v>
       </c>
       <c r="D3050" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70893,10 +70329,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5898</v>
+        <v>5900</v>
       </c>
       <c r="D3051" t="s">
-        <v>5899</v>
+        <v>5901</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70910,10 +70346,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="D3052" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70927,10 +70363,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="D3053" t="s">
-        <v>5903</v>
+        <v>5905</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70944,10 +70380,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="D3054" t="s">
-        <v>5905</v>
+        <v>5907</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70961,10 +70397,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5906</v>
+        <v>5908</v>
       </c>
       <c r="D3055" t="s">
-        <v>5907</v>
+        <v>5909</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70978,10 +70414,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="D3056" t="s">
-        <v>5909</v>
+        <v>5911</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70995,10 +70431,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5910</v>
+        <v>5912</v>
       </c>
       <c r="D3057" t="s">
-        <v>5911</v>
+        <v>5913</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -71012,10 +70448,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5912</v>
+        <v>5914</v>
       </c>
       <c r="D3058" t="s">
-        <v>5913</v>
+        <v>5915</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71029,10 +70465,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5914</v>
+        <v>5916</v>
       </c>
       <c r="D3059" t="s">
-        <v>5915</v>
+        <v>5917</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71046,10 +70482,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5916</v>
+        <v>5918</v>
       </c>
       <c r="D3060" t="s">
-        <v>5917</v>
+        <v>5919</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71063,10 +70499,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5918</v>
+        <v>5920</v>
       </c>
       <c r="D3061" t="s">
-        <v>5919</v>
+        <v>5921</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71077,13 +70513,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5920</v>
+        <v>5922</v>
       </c>
       <c r="C3062" t="s">
-        <v>5921</v>
+        <v>5923</v>
       </c>
       <c r="D3062" t="s">
-        <v>5922</v>
+        <v>5924</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71097,10 +70533,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5923</v>
+        <v>5925</v>
       </c>
       <c r="D3063" t="s">
-        <v>5924</v>
+        <v>5926</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71114,10 +70550,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5925</v>
+        <v>5927</v>
       </c>
       <c r="D3064" t="s">
-        <v>5926</v>
+        <v>4281</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71131,10 +70567,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5927</v>
+        <v>5928</v>
       </c>
       <c r="D3065" t="s">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71148,10 +70584,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="D3066" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71165,10 +70601,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="D3067" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71182,10 +70618,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="D3068" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71199,10 +70635,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="D3069" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71216,10 +70652,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="D3070" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71233,10 +70669,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="D3071" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71250,10 +70686,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="D3072" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71267,10 +70703,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="D3073" t="s">
-        <v>5944</v>
+        <v>5945</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71284,10 +70720,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5945</v>
+        <v>5946</v>
       </c>
       <c r="D3074" t="s">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71301,10 +70737,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5947</v>
+        <v>5948</v>
       </c>
       <c r="D3075" t="s">
-        <v>5948</v>
+        <v>5949</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71318,10 +70754,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
       <c r="D3076" t="s">
-        <v>5950</v>
+        <v>3522</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71338,7 +70774,7 @@
         <v>5951</v>
       </c>
       <c r="D3077" t="s">
-        <v>5952</v>
+        <v>118</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71352,10 +70788,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5953</v>
+        <v>5952</v>
       </c>
       <c r="D3078" t="s">
-        <v>5954</v>
+        <v>2161</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71369,10 +70805,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5955</v>
+        <v>5953</v>
       </c>
       <c r="D3079" t="s">
-        <v>5956</v>
+        <v>5954</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71386,10 +70822,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5957</v>
+        <v>5955</v>
       </c>
       <c r="D3080" t="s">
-        <v>5958</v>
+        <v>5956</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71403,10 +70839,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="D3081" t="s">
-        <v>5960</v>
+        <v>5958</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71420,10 +70856,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5961</v>
+        <v>5959</v>
       </c>
       <c r="D3082" t="s">
-        <v>5962</v>
+        <v>5960</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71437,10 +70873,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="D3083" t="s">
-        <v>5964</v>
+        <v>5962</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71454,10 +70890,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="D3084" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71471,10 +70907,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="D3085" t="s">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71488,10 +70924,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="D3086" t="s">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71505,10 +70941,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="D3087" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71522,10 +70958,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="D3088" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71539,10 +70975,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="D3089" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71556,10 +70992,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="D3090" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71573,10 +71009,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="D3091" t="s">
-        <v>5980</v>
+        <v>5978</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71590,10 +71026,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5981</v>
+        <v>5979</v>
       </c>
       <c r="D3092" t="s">
-        <v>5982</v>
+        <v>5980</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71607,10 +71043,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5983</v>
+        <v>5981</v>
       </c>
       <c r="D3093" t="s">
-        <v>5984</v>
+        <v>5982</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71624,10 +71060,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5985</v>
+        <v>5983</v>
       </c>
       <c r="D3094" t="s">
-        <v>5986</v>
+        <v>5984</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71641,10 +71077,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5987</v>
+        <v>5985</v>
       </c>
       <c r="D3095" t="s">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71658,10 +71094,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5989</v>
+        <v>5987</v>
       </c>
       <c r="D3096" t="s">
-        <v>5990</v>
+        <v>5988</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71675,10 +71111,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5991</v>
+        <v>5989</v>
       </c>
       <c r="D3097" t="s">
-        <v>1091</v>
+        <v>5990</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71692,10 +71128,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3098" t="s">
         <v>5992</v>
-      </c>
-      <c r="D3098" t="s">
-        <v>2236</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71878,11 +71314,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1303</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71895,11 +71331,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6014</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71913,10 +71349,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6014</v>
+        <v>6015</v>
       </c>
       <c r="D3111" t="s">
-        <v>6014</v>
+        <v>6016</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71930,10 +71366,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6015</v>
+        <v>6017</v>
       </c>
       <c r="D3112" t="s">
-        <v>6016</v>
+        <v>6018</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71947,10 +71383,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="D3113" t="s">
-        <v>2696</v>
+        <v>6020</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71964,10 +71400,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3114">
-        <v>1</v>
+        <v>6021</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6022</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71981,10 +71417,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6019</v>
+        <v>6023</v>
       </c>
       <c r="D3115" t="s">
-        <v>6020</v>
+        <v>6024</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71998,10 +71434,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6021</v>
+        <v>6025</v>
       </c>
       <c r="D3116" t="s">
-        <v>6022</v>
+        <v>6026</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72015,10 +71451,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6023</v>
+        <v>6027</v>
       </c>
       <c r="D3117" t="s">
-        <v>6024</v>
+        <v>6028</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72032,10 +71468,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6025</v>
+        <v>6029</v>
       </c>
       <c r="D3118" t="s">
-        <v>6026</v>
+        <v>6030</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72049,1678 +71485,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6027</v>
+        <v>6031</v>
       </c>
       <c r="D3119" t="s">
-        <v>6028</v>
+        <v>6032</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2747</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6098</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5920</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6109</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6109</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6181</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6182</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6183</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6184</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6185</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6186</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6187</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6188</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6189</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6190</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6191</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6192</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6193</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6194</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6195</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6202</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6203</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6204</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4374</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
